--- a/results/20250402/evaluation_emotions_noisy_0.3.xlsx
+++ b/results/20250402/evaluation_emotions_noisy_0.3.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.45861</v>
+        <v>0.57278</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04698</v>
+        <v>0.02089</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.22898</v>
+        <v>0.05771</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05801</v>
+        <v>0.02182</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.32721</v>
+        <v>0.5660500000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04204</v>
+        <v>0.02004</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.11497</v>
+        <v>0.03576</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04558</v>
+        <v>0.01711</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.45742</v>
+        <v>0.5732699999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>0.047</v>
+        <v>0.02065</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.22526</v>
+        <v>0.0567</v>
       </c>
       <c r="I31" t="n">
-        <v>0.05749</v>
+        <v>0.02319</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.321</v>
+        <v>0.56357</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04023</v>
+        <v>0.02053</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.10788</v>
+        <v>0.04014</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03897</v>
+        <v>0.0187</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.66237</v>
+        <v>0.56101</v>
       </c>
       <c r="I34" t="n">
-        <v>0.05438</v>
+        <v>0.01209</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.46698</v>
+        <v>0.00203</v>
       </c>
       <c r="I35" t="n">
-        <v>0.07945000000000001</v>
+        <v>0.00433</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.64915</v>
+        <v>0.56189</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05149</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.45552</v>
+        <v>0.00203</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0738</v>
+        <v>0.00433</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.66286</v>
+        <v>0.56126</v>
       </c>
       <c r="I38" t="n">
-        <v>0.05414</v>
+        <v>0.01213</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.46799</v>
+        <v>0.00203</v>
       </c>
       <c r="I39" t="n">
-        <v>0.07943</v>
+        <v>0.00433</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.64971</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05166</v>
+        <v>0.01196</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.45552</v>
+        <v>0.00203</v>
       </c>
       <c r="I41" t="n">
-        <v>0.07364999999999999</v>
+        <v>0.00433</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.5473</v>
+        <v>0.49812</v>
       </c>
       <c r="I66" t="n">
-        <v>0.03679</v>
+        <v>0.02334</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.29953</v>
+        <v>0.01147</v>
       </c>
       <c r="I67" t="n">
-        <v>0.05583</v>
+        <v>0.01009</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.41544</v>
+        <v>0.5091</v>
       </c>
       <c r="I68" t="n">
-        <v>0.04013</v>
+        <v>0.02301</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.17738</v>
+        <v>0.01012</v>
       </c>
       <c r="I69" t="n">
-        <v>0.04995</v>
+        <v>0.00984</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.54483</v>
+        <v>0.50042</v>
       </c>
       <c r="I70" t="n">
-        <v>0.03417</v>
+        <v>0.02383</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.29921</v>
+        <v>0.01114</v>
       </c>
       <c r="I71" t="n">
-        <v>0.05382</v>
+        <v>0.01004</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.39405</v>
+        <v>0.51074</v>
       </c>
       <c r="I72" t="n">
-        <v>0.03853</v>
+        <v>0.02438</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.16354</v>
+        <v>0.01484</v>
       </c>
       <c r="I73" t="n">
-        <v>0.04412</v>
+        <v>0.01199</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.58815</v>
+        <v>0.52986</v>
       </c>
       <c r="I74" t="n">
-        <v>0.04159</v>
+        <v>0.01385</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.35211</v>
+        <v>0.00034</v>
       </c>
       <c r="I75" t="n">
-        <v>0.06277000000000001</v>
+        <v>0.00166</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.54605</v>
+        <v>0.53568</v>
       </c>
       <c r="I76" t="n">
-        <v>0.04758</v>
+        <v>0.01487</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.31197</v>
+        <v>0.00168</v>
       </c>
       <c r="I77" t="n">
-        <v>0.06483999999999999</v>
+        <v>0.00337</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.58712</v>
+        <v>0.5296999999999999</v>
       </c>
       <c r="I78" t="n">
-        <v>0.04081</v>
+        <v>0.01316</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.3511</v>
+        <v>0.00034</v>
       </c>
       <c r="I79" t="n">
-        <v>0.06148</v>
+        <v>0.00166</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.54403</v>
+        <v>0.53483</v>
       </c>
       <c r="I80" t="n">
-        <v>0.04719</v>
+        <v>0.01505</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.3096</v>
+        <v>0.00202</v>
       </c>
       <c r="I81" t="n">
-        <v>0.06301</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.43366</v>
+        <v>0.57143</v>
       </c>
       <c r="I106" t="n">
-        <v>0.04861</v>
+        <v>0.02359</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.21453</v>
+        <v>0.05533</v>
       </c>
       <c r="I107" t="n">
-        <v>0.05779</v>
+        <v>0.02438</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.31644</v>
+        <v>0.56487</v>
       </c>
       <c r="I108" t="n">
-        <v>0.04349</v>
+        <v>0.02316</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.11433</v>
+        <v>0.03141</v>
       </c>
       <c r="I109" t="n">
-        <v>0.03923</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.43332</v>
+        <v>0.57156</v>
       </c>
       <c r="I110" t="n">
-        <v>0.04781</v>
+        <v>0.02389</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.21452</v>
+        <v>0.05567</v>
       </c>
       <c r="I111" t="n">
-        <v>0.06003</v>
+        <v>0.02505</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.30492</v>
+        <v>0.5628</v>
       </c>
       <c r="I112" t="n">
-        <v>0.04632</v>
+        <v>0.02273</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.10658</v>
+        <v>0.03478</v>
       </c>
       <c r="I113" t="n">
-        <v>0.04176</v>
+        <v>0.02348</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.63672</v>
+        <v>0.56606</v>
       </c>
       <c r="I114" t="n">
-        <v>0.05335</v>
+        <v>0.01672</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.44354</v>
+        <v>0.00135</v>
       </c>
       <c r="I115" t="n">
-        <v>0.074</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.62968</v>
+        <v>0.56667</v>
       </c>
       <c r="I116" t="n">
-        <v>0.05399</v>
+        <v>0.01658</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.43747</v>
+        <v>0.00203</v>
       </c>
       <c r="I117" t="n">
-        <v>0.07505000000000001</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.6368200000000001</v>
+        <v>0.56594</v>
       </c>
       <c r="I118" t="n">
-        <v>0.05402</v>
+        <v>0.01678</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.4432</v>
+        <v>0.00135</v>
       </c>
       <c r="I119" t="n">
-        <v>0.07571</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.62901</v>
+        <v>0.56649</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0546</v>
+        <v>0.01683</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.43612</v>
+        <v>0.00203</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0769</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.52346</v>
+        <v>0.49723</v>
       </c>
       <c r="I146" t="n">
-        <v>0.03411</v>
+        <v>0.02511</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.28019</v>
+        <v>0.01417</v>
       </c>
       <c r="I147" t="n">
-        <v>0.05083</v>
+        <v>0.01138</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.3875</v>
+        <v>0.50467</v>
       </c>
       <c r="I148" t="n">
-        <v>0.04335</v>
+        <v>0.0223</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.16315</v>
+        <v>0.01114</v>
       </c>
       <c r="I149" t="n">
-        <v>0.0476</v>
+        <v>0.01112</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.52084</v>
+        <v>0.4998</v>
       </c>
       <c r="I150" t="n">
-        <v>0.03335</v>
+        <v>0.02466</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.27984</v>
+        <v>0.01485</v>
       </c>
       <c r="I151" t="n">
-        <v>0.05006</v>
+        <v>0.01269</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.35693</v>
+        <v>0.50775</v>
       </c>
       <c r="I152" t="n">
-        <v>0.04752</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.13751</v>
+        <v>0.01788</v>
       </c>
       <c r="I153" t="n">
-        <v>0.04598</v>
+        <v>0.01588</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.5614400000000001</v>
+        <v>0.53355</v>
       </c>
       <c r="I154" t="n">
-        <v>0.04221</v>
+        <v>0.01769</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.32543</v>
+        <v>0.00135</v>
       </c>
       <c r="I155" t="n">
-        <v>0.05505</v>
+        <v>0.00309</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.52393</v>
+        <v>0.53928</v>
       </c>
       <c r="I156" t="n">
-        <v>0.04109</v>
+        <v>0.01764</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.29339</v>
+        <v>0.00473</v>
       </c>
       <c r="I157" t="n">
-        <v>0.0481</v>
+        <v>0.00927</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.56191</v>
+        <v>0.53339</v>
       </c>
       <c r="I158" t="n">
-        <v>0.04279</v>
+        <v>0.01714</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.32712</v>
+        <v>0.00135</v>
       </c>
       <c r="I159" t="n">
-        <v>0.0563</v>
+        <v>0.00309</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.52229</v>
+        <v>0.53854</v>
       </c>
       <c r="I160" t="n">
-        <v>0.04419</v>
+        <v>0.01757</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.29339</v>
+        <v>0.00473</v>
       </c>
       <c r="I161" t="n">
-        <v>0.05155</v>
+        <v>0.00927</v>
       </c>
     </row>
   </sheetData>
